--- a/exp10/data/errorstuff.xlsx
+++ b/exp10/data/errorstuff.xlsx
@@ -230,7 +230,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Relative Error (%)</c:v>
+            <c:v>Relative Error [%]</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -338,7 +338,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Deviation from Theory (mm)</c:v>
+            <c:v>Deviation from Theory [mm]</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -442,11 +442,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="44083840"/>
-        <c:axId val="44082304"/>
+        <c:axId val="78328960"/>
+        <c:axId val="78331264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44083840"/>
+        <c:axId val="78328960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -462,8 +462,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Measured Radius of Beam</a:t>
+                  <a:t>Measured Radius of Beam [mm</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -471,42 +476,20 @@
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44082304"/>
+        <c:crossAx val="78331264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="44082304"/>
+        <c:axId val="78331264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-CH"/>
-                  <a:t>Relative</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="de-CH" baseline="0"/>
-                  <a:t> Error</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44083840"/>
+        <c:crossAx val="78328960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -519,7 +502,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -847,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/exp10/data/errorstuff.xlsx
+++ b/exp10/data/errorstuff.xlsx
@@ -345,6 +345,13 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="1"/>
+            <c:val val="2000"/>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Tabelle1!$H$8:$H$20</c:f>
@@ -442,13 +449,15 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78328960"/>
-        <c:axId val="78331264"/>
+        <c:axId val="47993984"/>
+        <c:axId val="47996288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78328960"/>
+        <c:axId val="47993984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="51"/>
+          <c:min val="14"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:title>
@@ -461,14 +470,14 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Measured Radius of Beam [mm</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
                   <a:t>]</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -476,33 +485,61 @@
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78331264"/>
+        <c:crossAx val="47996288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78331264"/>
+        <c:axId val="47996288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="-20"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78328960"/>
+        <c:crossAx val="47993984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -513,13 +550,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>134469</xdr:colOff>
+      <xdr:colOff>190498</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>963705</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
@@ -831,7 +868,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+      <selection activeCell="S54" sqref="S54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
